--- a/data/trans_dic/P12A1_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación  &gt;=60 años</t>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57,92%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>69,21%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,01%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 46,33</t>
+          <t>1,03; 6,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,78; 50,06</t>
+          <t>2,74; 10,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,46; 50,04</t>
+          <t>1,44; 7,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,84; 72,2</t>
+          <t>2,21; 8,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,29; 86,56</t>
+          <t>2,31; 8,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,04; 70,47</t>
+          <t>2,11; 8,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,21; 54,73</t>
+          <t>1,64; 6,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,03; 70,23</t>
+          <t>4,24; 14,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 54,99</t>
+          <t>2,17; 6,28</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 7,87</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 6,29</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 9,84</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,65%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,19; 59,91</t>
+          <t>3,54; 12,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,85; 52,78</t>
+          <t>3,7; 12,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,85; 56,56</t>
+          <t>4,2; 13,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,64; 61,78</t>
+          <t>7,17; 18,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,22; 65,44</t>
+          <t>4,46; 13,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,04; 59,42</t>
+          <t>1,58; 7,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,61; 56,15</t>
+          <t>1,1; 7,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,85; 56,44</t>
+          <t>2,89; 11,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,69; 53,49</t>
+          <t>4,83; 11,63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 8,22</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 8,75</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 12,32</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>78,53%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,41%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,89; 100,0</t>
+          <t>2,16; 24,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 78,69</t>
+          <t>2,51; 27,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 79,03</t>
+          <t>2,36; 26,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>2,82; 31,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,84; 92,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 65,16</t>
+          <t>0,0; 18,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 73,14</t>
+          <t>0,0; 12,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 14,31</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 14,4</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 22,78</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,99%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,73%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,54%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,76; 51,89</t>
+          <t>3,16; 8,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,64; 46,98</t>
+          <t>4,51; 10,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,12; 49,89</t>
+          <t>3,93; 9,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,52; 62,6</t>
+          <t>5,82; 12,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,47; 71,52</t>
+          <t>3,45; 8,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 57,76</t>
+          <t>2,13; 5,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,86; 53,51</t>
+          <t>1,67; 4,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,95; 57,95</t>
+          <t>4,35; 10,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,67; 49,6</t>
+          <t>3,9; 7,48</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 7,06</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 6,25</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 10,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12083</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21330</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14314</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23995</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>23587</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18956</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14909</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42951</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>35671</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>40286</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>29223</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>66946</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4413; 26411</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10050; 38300</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5484; 27903</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11374; 45216</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11758; 44402</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8890; 34086</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6699; 28226</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23584; 79856</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20415; 58920</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25249; 61991</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16782; 49582</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42560; 105331</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24545</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22292</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25507</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>45487</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>34710</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12234</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9723</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26341</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>59255</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34526</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>35230</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>71828</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12729; 43714</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11779; 39247</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13548; 45144</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>29144; 74649</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18989; 59437</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5331; 27045</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3696; 24380</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12519; 51786</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37923; 91268</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21551; 53984</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20497; 57573</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>45535; 103430</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9231</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9197</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9724</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16181</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6788</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9231</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9197</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9724</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>22969</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2198; 25355</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1995; 22089</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2019; 22729</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3363; 38181</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20498</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 25064</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2056; 23055</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2268; 24205</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8755; 52561</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>45860</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>52820</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>49546</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>85663</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>58297</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31189</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24631</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>76080</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>104157</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>84009</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>74178</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>161743</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>28197; 73093</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>34497; 78256</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>30986; 74109</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>60498; 126447</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>35668; 89677</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17942; 48272</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13808; 40939</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>47866; 117079</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>75116; 144183</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>61019; 113295</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>52478; 100853</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>119235; 217467</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
